--- a/biology/Botanique/Flore_endémique_des_Mascareignes/Flore_endémique_des_Mascareignes.xlsx
+++ b/biology/Botanique/Flore_endémique_des_Mascareignes/Flore_endémique_des_Mascareignes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_des_Mascareignes</t>
+          <t>Flore_endémique_des_Mascareignes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La flore endémique des Mascareignes regroupe les espèces végétales endémiques de l'archipel de l'océan Indien que l'on appelle les Mascareignes et dont les noms scientifiques sont ici classés selon l'ordre alphabétique.
 Attention, la liste n'inclut pas les espèces qui sont endémiques à une seule des trois îles principales ou aux îlots qui n'entourent que l'une d'entre elles :
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_des_Mascareignes</t>
+          <t>Flore_endémique_des_Mascareignes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acalypha integrifolia - Bois queue de rat.
 Acanthophoenix rubra - Palmiste rouge.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_des_Mascareignes</t>
+          <t>Flore_endémique_des_Mascareignes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Calophyllum tacamahaca - Takamaka des Hauts.
 Carissa xylopicron - Bois amer.
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_des_Mascareignes</t>
+          <t>Flore_endémique_des_Mascareignes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dictyosperma album - Palmiste blanc.
 Dombeya acutangula - Mahot tantan.
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_des_Mascareignes</t>
+          <t>Flore_endémique_des_Mascareignes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Elaeodendron orientale - Bois d'olive.
 Embelia angustifolia - Liane poilly.
@@ -634,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_des_Mascareignes</t>
+          <t>Flore_endémique_des_Mascareignes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,7 +672,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Faujasiopsis flexuosa - Bois cassant.
 Foetidia mauritiana - Bois puant.</t>
@@ -665,7 +687,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_des_Mascareignes</t>
+          <t>Flore_endémique_des_Mascareignes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -683,7 +705,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Gastonia cutispongia - Bois d'éponge.
 Geniostoma borbonicum - Bois de piment.
@@ -697,7 +721,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_des_Mascareignes</t>
+          <t>Flore_endémique_des_Mascareignes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -715,7 +739,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Hibiscus boryanus - Foulsapate marron.</t>
         </is>
@@ -727,7 +753,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_des_Mascareignes</t>
+          <t>Flore_endémique_des_Mascareignes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -745,7 +771,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Jumella fragrans - Faham.</t>
         </is>
@@ -757,7 +785,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_des_Mascareignes</t>
+          <t>Flore_endémique_des_Mascareignes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -775,7 +803,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Mussaenda landia - Quinquina indigène.</t>
         </is>
@@ -787,7 +817,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_des_Mascareignes</t>
+          <t>Flore_endémique_des_Mascareignes</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -805,7 +835,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Nuxia verticillata - Bois maigre.</t>
         </is>
@@ -817,7 +849,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_des_Mascareignes</t>
+          <t>Flore_endémique_des_Mascareignes</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -835,7 +867,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Obetia ficifolia - Bois d'ortie.</t>
         </is>
@@ -847,7 +881,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_des_Mascareignes</t>
+          <t>Flore_endémique_des_Mascareignes</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -865,7 +899,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Phylica nitida - Ambaville bâtard.
 Phyllanthus casticum - Bois caustique.
@@ -882,7 +918,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_des_Mascareignes</t>
+          <t>Flore_endémique_des_Mascareignes</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -900,7 +936,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Scolopia heterophylla - Bois de bouchon.</t>
         </is>
@@ -912,7 +950,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_des_Mascareignes</t>
+          <t>Flore_endémique_des_Mascareignes</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -930,7 +968,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Tabernaemontana mauritiana - Bois de lait.
 Turraea casimiriana - Bois de Quivi.
@@ -944,7 +984,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_des_Mascareignes</t>
+          <t>Flore_endémique_des_Mascareignes</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -962,7 +1002,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Weinmannia tinctoria - Tan rouge</t>
         </is>
@@ -974,7 +1016,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_des_Mascareignes</t>
+          <t>Flore_endémique_des_Mascareignes</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -992,7 +1034,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Zanthoxylum heterophyllum - Bois de poivre.
  Portail de la botanique   Portail des Mascareignes                    </t>
